--- a/natmiOut/OldD4/LR-pairs_lrc2p/Vwf-Tnfrsf11b.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Vwf-Tnfrsf11b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Tnfrsf11b</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>31.7409130260798</v>
+        <v>36.243714</v>
       </c>
       <c r="H2">
-        <v>31.7409130260798</v>
+        <v>108.731142</v>
       </c>
       <c r="I2">
-        <v>0.8729452272685483</v>
+        <v>0.8649908629189639</v>
       </c>
       <c r="J2">
-        <v>0.8729452272685483</v>
+        <v>0.8684205217155003</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.08045631724567</v>
+        <v>2.311298</v>
       </c>
       <c r="N2">
-        <v>2.08045631724567</v>
+        <v>6.933894</v>
       </c>
       <c r="O2">
-        <v>0.8344237788845816</v>
+        <v>0.8122763614007964</v>
       </c>
       <c r="P2">
-        <v>0.8344237788845816</v>
+        <v>0.8638687058964239</v>
       </c>
       <c r="Q2">
-        <v>66.0355830202531</v>
+        <v>83.77002368077203</v>
       </c>
       <c r="R2">
-        <v>66.0355830202531</v>
+        <v>753.930213126948</v>
       </c>
       <c r="S2">
-        <v>0.728406255296682</v>
+        <v>0.702611630776751</v>
       </c>
       <c r="T2">
-        <v>0.728406255296682</v>
+        <v>0.7502013122682666</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,123 +587,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>31.7409130260798</v>
+        <v>36.243714</v>
       </c>
       <c r="H3">
-        <v>31.7409130260798</v>
+        <v>108.731142</v>
       </c>
       <c r="I3">
-        <v>0.8729452272685483</v>
+        <v>0.8649908629189639</v>
       </c>
       <c r="J3">
-        <v>0.8729452272685483</v>
+        <v>0.8684205217155003</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.412828713565324</v>
+        <v>0.02434666666666667</v>
       </c>
       <c r="N3">
-        <v>0.412828713565324</v>
+        <v>0.07303999999999999</v>
       </c>
       <c r="O3">
-        <v>0.1655762211154184</v>
+        <v>0.008556327142686946</v>
       </c>
       <c r="P3">
-        <v>0.1655762211154184</v>
+        <v>0.009099788701510982</v>
       </c>
       <c r="Q3">
-        <v>13.10356029194536</v>
+        <v>0.8824136235200001</v>
       </c>
       <c r="R3">
-        <v>13.10356029194536</v>
+        <v>7.941722611679999</v>
       </c>
       <c r="S3">
-        <v>0.1445389719718664</v>
+        <v>0.007401144798569734</v>
       </c>
       <c r="T3">
-        <v>0.1445389719718664</v>
+        <v>0.007902443251666983</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.38289979855941</v>
+        <v>36.243714</v>
       </c>
       <c r="H4">
-        <v>2.38289979855941</v>
+        <v>108.731142</v>
       </c>
       <c r="I4">
-        <v>0.06553500853937258</v>
+        <v>0.8649908629189639</v>
       </c>
       <c r="J4">
-        <v>0.06553500853937258</v>
+        <v>0.8684205217155003</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.08045631724567</v>
+        <v>0.509813</v>
       </c>
       <c r="N4">
-        <v>2.08045631724567</v>
+        <v>1.019626</v>
       </c>
       <c r="O4">
-        <v>0.8344237788845816</v>
+        <v>0.1791673114565167</v>
       </c>
       <c r="P4">
-        <v>0.8344237788845816</v>
+        <v>0.1270315054020651</v>
       </c>
       <c r="Q4">
-        <v>4.957518939276358</v>
+        <v>18.477516565482</v>
       </c>
       <c r="R4">
-        <v>4.957518939276358</v>
+        <v>110.865099392892</v>
       </c>
       <c r="S4">
-        <v>0.0546839694746566</v>
+        <v>0.1549780873436431</v>
       </c>
       <c r="T4">
-        <v>0.0546839694746566</v>
+        <v>0.1103167661955668</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,309 +711,743 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>2.38289979855941</v>
+        <v>0.162907</v>
       </c>
       <c r="H5">
-        <v>2.38289979855941</v>
+        <v>0.488721</v>
       </c>
       <c r="I5">
-        <v>0.06553500853937258</v>
+        <v>0.003887931201132964</v>
       </c>
       <c r="J5">
-        <v>0.06553500853937258</v>
+        <v>0.003903346713615139</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.412828713565324</v>
+        <v>2.311298</v>
       </c>
       <c r="N5">
-        <v>0.412828713565324</v>
+        <v>6.933894</v>
       </c>
       <c r="O5">
-        <v>0.1655762211154184</v>
+        <v>0.8122763614007964</v>
       </c>
       <c r="P5">
-        <v>0.1655762211154184</v>
+        <v>0.8638687058964239</v>
       </c>
       <c r="Q5">
-        <v>0.9837294583943509</v>
+        <v>0.3765266232860001</v>
       </c>
       <c r="R5">
-        <v>0.9837294583943509</v>
+        <v>3.388739609574</v>
       </c>
       <c r="S5">
-        <v>0.01085103906471599</v>
+        <v>0.003158074609432912</v>
       </c>
       <c r="T5">
-        <v>0.01085103906471599</v>
+        <v>0.00337197907415577</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.75248327162173</v>
+        <v>0.162907</v>
       </c>
       <c r="H6">
-        <v>1.75248327162173</v>
+        <v>0.488721</v>
       </c>
       <c r="I6">
-        <v>0.04819716139145676</v>
+        <v>0.003887931201132964</v>
       </c>
       <c r="J6">
-        <v>0.04819716139145676</v>
+        <v>0.003903346713615139</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>2.08045631724567</v>
+        <v>0.02434666666666667</v>
       </c>
       <c r="N6">
-        <v>2.08045631724567</v>
+        <v>0.07303999999999999</v>
       </c>
       <c r="O6">
-        <v>0.8344237788845816</v>
+        <v>0.008556327142686946</v>
       </c>
       <c r="P6">
-        <v>0.8344237788845816</v>
+        <v>0.009099788701510982</v>
       </c>
       <c r="Q6">
-        <v>3.645964893312788</v>
+        <v>0.003966242426666666</v>
       </c>
       <c r="R6">
-        <v>3.645964893312788</v>
+        <v>0.03569618184</v>
       </c>
       <c r="S6">
-        <v>0.04021685753976941</v>
+        <v>3.326641126515345E-05</v>
       </c>
       <c r="T6">
-        <v>0.04021685753976941</v>
+        <v>3.551963032263507E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>1.75248327162173</v>
+        <v>0.162907</v>
       </c>
       <c r="H7">
-        <v>1.75248327162173</v>
+        <v>0.488721</v>
       </c>
       <c r="I7">
-        <v>0.04819716139145676</v>
+        <v>0.003887931201132964</v>
       </c>
       <c r="J7">
-        <v>0.04819716139145676</v>
+        <v>0.003903346713615139</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.412828713565324</v>
+        <v>0.509813</v>
       </c>
       <c r="N7">
-        <v>0.412828713565324</v>
+        <v>1.019626</v>
       </c>
       <c r="O7">
-        <v>0.1655762211154184</v>
+        <v>0.1791673114565167</v>
       </c>
       <c r="P7">
-        <v>0.1655762211154184</v>
+        <v>0.1270315054020651</v>
       </c>
       <c r="Q7">
-        <v>0.7234754145683491</v>
+        <v>0.083052106391</v>
       </c>
       <c r="R7">
-        <v>0.7234754145683491</v>
+        <v>0.498312638346</v>
       </c>
       <c r="S7">
-        <v>0.007980303851687354</v>
+        <v>0.0006965901804348988</v>
       </c>
       <c r="T7">
-        <v>0.007980303851687354</v>
+        <v>0.0004958480091367348</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.484419369699437</v>
+        <v>3.035480333333334</v>
       </c>
       <c r="H8">
-        <v>0.484419369699437</v>
+        <v>9.106441</v>
       </c>
       <c r="I8">
-        <v>0.01332260280062238</v>
+        <v>0.07244463834207344</v>
       </c>
       <c r="J8">
-        <v>0.01332260280062238</v>
+        <v>0.07273187882264147</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.08045631724567</v>
+        <v>2.311298</v>
       </c>
       <c r="N8">
-        <v>2.08045631724567</v>
+        <v>6.933894</v>
       </c>
       <c r="O8">
-        <v>0.8344237788845816</v>
+        <v>0.8122763614007964</v>
       </c>
       <c r="P8">
-        <v>0.8344237788845816</v>
+        <v>0.8638687058964239</v>
       </c>
       <c r="Q8">
-        <v>1.007813337887359</v>
+        <v>7.015899623472668</v>
       </c>
       <c r="R8">
-        <v>1.007813337887359</v>
+        <v>63.14309661125401</v>
       </c>
       <c r="S8">
-        <v>0.01111669657347363</v>
+        <v>0.05884506723549604</v>
       </c>
       <c r="T8">
-        <v>0.01111669657347363</v>
+        <v>0.06283079403593081</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3.035480333333334</v>
+      </c>
+      <c r="H9">
+        <v>9.106441</v>
+      </c>
+      <c r="I9">
+        <v>0.07244463834207344</v>
+      </c>
+      <c r="J9">
+        <v>0.07273187882264147</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.02434666666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.07303999999999999</v>
+      </c>
+      <c r="O9">
+        <v>0.008556327142686946</v>
+      </c>
+      <c r="P9">
+        <v>0.009099788701510982</v>
+      </c>
+      <c r="Q9">
+        <v>0.0739038278488889</v>
+      </c>
+      <c r="R9">
+        <v>0.66513445064</v>
+      </c>
+      <c r="S9">
+        <v>0.0006198600253884224</v>
+      </c>
+      <c r="T9">
+        <v>0.0006618447291499388</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>3.035480333333334</v>
+      </c>
+      <c r="H10">
+        <v>9.106441</v>
+      </c>
+      <c r="I10">
+        <v>0.07244463834207344</v>
+      </c>
+      <c r="J10">
+        <v>0.07273187882264147</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.509813</v>
+      </c>
+      <c r="N10">
+        <v>1.019626</v>
+      </c>
+      <c r="O10">
+        <v>0.1791673114565167</v>
+      </c>
+      <c r="P10">
+        <v>0.1270315054020651</v>
+      </c>
+      <c r="Q10">
+        <v>1.547527335177667</v>
+      </c>
+      <c r="R10">
+        <v>9.285164011066</v>
+      </c>
+      <c r="S10">
+        <v>0.01297971108118898</v>
+      </c>
+      <c r="T10">
+        <v>0.009239240057560728</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.962152666666667</v>
+      </c>
+      <c r="H11">
+        <v>5.886458</v>
+      </c>
+      <c r="I11">
+        <v>0.04682864808829321</v>
+      </c>
+      <c r="J11">
+        <v>0.04701432205518803</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.311298</v>
+      </c>
+      <c r="N11">
+        <v>6.933894</v>
+      </c>
+      <c r="O11">
+        <v>0.8122763614007964</v>
+      </c>
+      <c r="P11">
+        <v>0.8638687058964239</v>
+      </c>
+      <c r="Q11">
+        <v>4.535119534161334</v>
+      </c>
+      <c r="R11">
+        <v>40.816075807452</v>
+      </c>
+      <c r="S11">
+        <v>0.03803780387847717</v>
+      </c>
+      <c r="T11">
+        <v>0.04061420155241298</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.962152666666667</v>
+      </c>
+      <c r="H12">
+        <v>5.886458</v>
+      </c>
+      <c r="I12">
+        <v>0.04682864808829321</v>
+      </c>
+      <c r="J12">
+        <v>0.04701432205518803</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.02434666666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.07303999999999999</v>
+      </c>
+      <c r="O12">
+        <v>0.008556327142686946</v>
+      </c>
+      <c r="P12">
+        <v>0.009099788701510982</v>
+      </c>
+      <c r="Q12">
+        <v>0.04777187692444444</v>
+      </c>
+      <c r="R12">
+        <v>0.42994689232</v>
+      </c>
+      <c r="S12">
+        <v>0.0004006812326931984</v>
+      </c>
+      <c r="T12">
+        <v>0.0004278203966469986</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.962152666666667</v>
+      </c>
+      <c r="H13">
+        <v>5.886458</v>
+      </c>
+      <c r="I13">
+        <v>0.04682864808829321</v>
+      </c>
+      <c r="J13">
+        <v>0.04701432205518803</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.509813</v>
+      </c>
+      <c r="N13">
+        <v>1.019626</v>
+      </c>
+      <c r="O13">
+        <v>0.1791673114565167</v>
+      </c>
+      <c r="P13">
+        <v>0.1270315054020651</v>
+      </c>
+      <c r="Q13">
+        <v>1.000330937451333</v>
+      </c>
+      <c r="R13">
+        <v>6.001985624707999</v>
+      </c>
+      <c r="S13">
+        <v>0.008390162977122844</v>
+      </c>
+      <c r="T13">
+        <v>0.005972300106128048</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.484419369699437</v>
-      </c>
-      <c r="H9">
-        <v>0.484419369699437</v>
-      </c>
-      <c r="I9">
-        <v>0.01332260280062238</v>
-      </c>
-      <c r="J9">
-        <v>0.01332260280062238</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.412828713565324</v>
-      </c>
-      <c r="N9">
-        <v>0.412828713565324</v>
-      </c>
-      <c r="O9">
-        <v>0.1655762211154184</v>
-      </c>
-      <c r="P9">
-        <v>0.1655762211154184</v>
-      </c>
-      <c r="Q9">
-        <v>0.1999822252191437</v>
-      </c>
-      <c r="R9">
-        <v>0.1999822252191437</v>
-      </c>
-      <c r="S9">
-        <v>0.002205906227148743</v>
-      </c>
-      <c r="T9">
-        <v>0.002205906227148743</v>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.496436</v>
+      </c>
+      <c r="H14">
+        <v>0.992872</v>
+      </c>
+      <c r="I14">
+        <v>0.01184791944953651</v>
+      </c>
+      <c r="J14">
+        <v>0.007929930693054914</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>2.311298</v>
+      </c>
+      <c r="N14">
+        <v>6.933894</v>
+      </c>
+      <c r="O14">
+        <v>0.8122763614007964</v>
+      </c>
+      <c r="P14">
+        <v>0.8638687058964239</v>
+      </c>
+      <c r="Q14">
+        <v>1.147411533928</v>
+      </c>
+      <c r="R14">
+        <v>6.884469203568</v>
+      </c>
+      <c r="S14">
+        <v>0.009623784900639242</v>
+      </c>
+      <c r="T14">
+        <v>0.006850418965657681</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.496436</v>
+      </c>
+      <c r="H15">
+        <v>0.992872</v>
+      </c>
+      <c r="I15">
+        <v>0.01184791944953651</v>
+      </c>
+      <c r="J15">
+        <v>0.007929930693054914</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.02434666666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.07303999999999999</v>
+      </c>
+      <c r="O15">
+        <v>0.008556327142686946</v>
+      </c>
+      <c r="P15">
+        <v>0.009099788701510982</v>
+      </c>
+      <c r="Q15">
+        <v>0.01208656181333333</v>
+      </c>
+      <c r="R15">
+        <v>0.07251937087999999</v>
+      </c>
+      <c r="S15">
+        <v>0.0001013746747704378</v>
+      </c>
+      <c r="T15">
+        <v>7.216069372442625E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.496436</v>
+      </c>
+      <c r="H16">
+        <v>0.992872</v>
+      </c>
+      <c r="I16">
+        <v>0.01184791944953651</v>
+      </c>
+      <c r="J16">
+        <v>0.007929930693054914</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.509813</v>
+      </c>
+      <c r="N16">
+        <v>1.019626</v>
+      </c>
+      <c r="O16">
+        <v>0.1791673114565167</v>
+      </c>
+      <c r="P16">
+        <v>0.1270315054020651</v>
+      </c>
+      <c r="Q16">
+        <v>0.253089526468</v>
+      </c>
+      <c r="R16">
+        <v>1.012358105872</v>
+      </c>
+      <c r="S16">
+        <v>0.002122759874126829</v>
+      </c>
+      <c r="T16">
+        <v>0.001007351033672807</v>
       </c>
     </row>
   </sheetData>
